--- a/uploads/20202415/我的课表.xlsx
+++ b/uploads/20202415/我的课表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23325" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -125,6 +125,17 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -624,49 +635,43 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,101 +680,119 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1099,97 +1122,96 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.2583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="2"/>
-    <col min="3" max="3" width="4.125" style="2"/>
-    <col min="4" max="4" width="5.625" style="2"/>
-    <col min="5" max="5" width="8.125" style="2"/>
-    <col min="6" max="7" width="4.125" style="2"/>
-    <col min="8" max="8" width="9.625" style="2"/>
-    <col min="9" max="9" width="65" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.125" style="2"/>
-    <col min="11" max="11" width="9.625" style="2"/>
-    <col min="12" max="13" width="4.125" style="2"/>
-    <col min="14" max="14" width="9.625" style="2"/>
-    <col min="15" max="16" width="4.125" style="2"/>
-    <col min="17" max="17" width="9.625" style="2"/>
-    <col min="18" max="20" width="3.125" style="2"/>
-    <col min="21" max="21" width="9.125" style="2"/>
-    <col min="22" max="24" width="3.125" style="2"/>
+    <col min="1" max="1" width="12.3166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29.775" style="2" customWidth="1"/>
+    <col min="4" max="5" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.775" style="2" customWidth="1"/>
+    <col min="7" max="8" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.775" style="2" customWidth="1"/>
+    <col min="10" max="11" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.775" style="2" customWidth="1"/>
+    <col min="13" max="14" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.775" style="2" customWidth="1"/>
+    <col min="16" max="17" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.89166666666667" style="2" customWidth="1"/>
+    <col min="19" max="21" width="5.625" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.89166666666667" style="2" customWidth="1"/>
+    <col min="23" max="24" width="3.125" style="2"/>
     <col min="25" max="25" width="9.125" style="2"/>
     <col min="26" max="16384" width="5.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:25">
-      <c r="A1" t="s">
+    <row r="1" ht="25.4" customHeight="1" spans="1:25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="P1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="S1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="W1" t="s">
@@ -1202,71 +1224,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="84" customHeight="1" spans="1:25">
-      <c r="A2" t="s">
+    <row r="2" ht="101.7" customHeight="1" spans="1:25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="P2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -1279,71 +1301,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="84" customHeight="1" spans="1:25">
-      <c r="A3" t="s">
+    <row r="3" ht="76.3" customHeight="1" spans="1:25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="P3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W3" t="s">
@@ -1356,71 +1378,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="84" customHeight="1" spans="1:25">
-      <c r="A4" t="s">
+    <row r="4" ht="101.7" customHeight="1" spans="1:25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W4" t="s">
@@ -1433,71 +1455,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="84" customHeight="1" spans="1:25">
-      <c r="A5" t="s">
+    <row r="5" ht="76.3" customHeight="1" spans="1:25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="M5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W5" t="s">
@@ -1510,71 +1532,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="57.6" customHeight="1" spans="1:25">
-      <c r="A6" t="s">
+    <row r="6" ht="50.85" customHeight="1" spans="1:25">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W6" t="s">
@@ -1587,71 +1609,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="57.6" customHeight="1" spans="1:25">
-      <c r="A7" t="s">
+    <row r="7" ht="50.85" customHeight="1" spans="1:25">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W7" t="s">
@@ -1664,71 +1686,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="57.6" customHeight="1" spans="1:25">
-      <c r="A8" t="s">
+    <row r="8" ht="50.85" customHeight="1" spans="1:25">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W8" t="s">
@@ -1741,71 +1763,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="57.6" customHeight="1" spans="1:25">
-      <c r="A9" t="s">
+    <row r="9" ht="50.85" customHeight="1" spans="1:25">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W9" t="s">
